--- a/3_Implementation/src/PythonExcelSheets.xlsx
+++ b/3_Implementation/src/PythonExcelSheets.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,17 +11,18 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="mastersheet" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summarysheet" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="mastersheet" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="171027" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -53,6 +54,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -64,12 +70,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -91,8 +112,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6117,33 +6140,33 @@
           <t>Email</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Invigilator Name</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Subject</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>Invigilator  Mail ID</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Mobile number 
 of the Invigilator</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>10th Marks</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>12th Marks</t>
         </is>
@@ -7964,7 +7987,7 @@
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -9641,7 +9664,73 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9651,424 +9740,596 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="7" t="n">
-        <v>99003796</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="7" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="7" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="7" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="7" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="7" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="7" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="7" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="7" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
+      <c r="A2" s="7" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chester Taylor</t>
-        </is>
+          <t>Sam Thompson</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>s.thompson@randatmail.com</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SDLC</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Telecom</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>24</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>907-5255-16</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Bachelor</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Biochemist</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3908</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Benton, John B Jr</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>6649 N Blue Gum St</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>New Orleans</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Orleans</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>LA</t>
+        </is>
+      </c>
+      <c r="W2" t="n">
+        <v>70116</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>B.Tech</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Dr. Debajyoty Banik</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>CE 4074 - Environmental Chemistry</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>debajyoty.banikfcs@kiit.ac.in</t>
+        </is>
+      </c>
+      <c r="AC2" t="n">
+        <v>7008652092</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>SLOT-7-SCE-1</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>Carretera</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AI2" t="n">
+        <v>1618.5</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>32370</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>16185</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
+      <c r="A3" s="7" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>c.taylor@randatmail.com</t>
-        </is>
+          <t>Charlie Higgins</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>c.higgins@randatmail.com</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SDLC</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Telecom</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>22</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>897-7397-13</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Primary</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Astronomer</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2049</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Chemel, James L Cpa</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>8 W Cerritos Ave #54</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Bridgeport</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Gloucester</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="W3" t="n">
+        <v>8014</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>B.Tech</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Dr. Debajyoty Banik</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>CE 4074 - Environmental Chemistry</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>debajyoty.banikfcs@kiit.ac.in</t>
+        </is>
+      </c>
+      <c r="AC3" t="n">
+        <v>9938524726</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>94</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>59</v>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>SLOT-7-SCE-1</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>Carretera</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="AI3" t="n">
+        <v>2178</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>32670</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>10890</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>Dept ID</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>Module Name</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Embedded C</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pune</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>Domain</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>System Engineer</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>Duration of Internship</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+      <c r="A4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Charlie Higgins</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>c.higgins@randatmail.com</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>Floor</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>Stipend</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SDLC</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bangalore</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Telecom</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
         <v>10000</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>Gender</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="inlineStr">
-        <is>
-          <t>Phone</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>482-6096-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="inlineStr">
-        <is>
-          <t>Education</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Bachelor</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="inlineStr">
-        <is>
-          <t>Occupation</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Hairdresser</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>Experience (Years)</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="inlineStr">
-        <is>
-          <t>Salary</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>Company Name</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Tri State Refueler Co</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>128 Bransten Rd</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>City</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>New York</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>County</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>New York</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>NY</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="7" t="inlineStr">
-        <is>
-          <t>ZIP</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>10011</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="inlineStr">
-        <is>
-          <t>Degree</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Phd</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="inlineStr">
-        <is>
-          <t>Unnamed: 10</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="inlineStr">
-        <is>
-          <t>Invigilator Name</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Dr. Mainak Bandyopadhyay</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="inlineStr">
-        <is>
-          <t>Subject</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>CE4079 - Water Resources Management</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="inlineStr">
-        <is>
-          <t>Invigilator  Mail ID</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>mainak.bandyopadhyayfcs@kiit.ac.in</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="inlineStr">
-        <is>
-          <t>Mobile numberof the Invigilator</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="inlineStr">
-        <is>
-          <t>10th Marks</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="inlineStr">
-        <is>
-          <t>12th Marks</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7" t="inlineStr">
-        <is>
-          <t>Virtual Room No</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>SLOT-7-SCE-2</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Velo</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7" t="inlineStr">
-        <is>
-          <t>Discount Band</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="L4" t="n">
+        <v>22</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>897-7397-13</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Primary</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Astronomer</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2049</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Chemel, James L Cpa</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>8 W Cerritos Ave #54</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Bridgeport</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Gloucester</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>8014</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>B.Tech</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>Dr. Debajyoty Banik</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>CE 4074 - Environmental Chemistry</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>debajyoty.banikfcs@kiit.ac.in</t>
+        </is>
+      </c>
+      <c r="AC4" t="n">
+        <v>9938524726</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>94</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>59</v>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>SLOT-7-SCE-1</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>Carretera</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7" t="inlineStr">
-        <is>
-          <t>Units Sold</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>2821</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7" t="inlineStr">
-        <is>
-          <t>Manufacturing Price</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="7" t="inlineStr">
-        <is>
-          <t>Sale Price</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="7" t="inlineStr">
-        <is>
-          <t>Gross Sales</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>352625</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="7" t="inlineStr">
-        <is>
-          <t>Profit</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
+      <c r="AI4" t="n">
+        <v>2178</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>32670</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>10890</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/3_Implementation/src/PythonExcelSheets.xlsx
+++ b/3_Implementation/src/PythonExcelSheets.xlsx
@@ -9730,7 +9730,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM4"/>
+  <dimension ref="A1:AM3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10019,16 +10019,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charlie Higgins</t>
+          <t>Clark Richards</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>c.higgins@randatmail.com</t>
+          <t>c.richards@randatmail.com</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -10056,60 +10056,60 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>897-7397-13</t>
+          <t>587-7441-37</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Primary</t>
+          <t>Lower secondary</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Astronomer</t>
+          <t>Medic</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q3" t="n">
-        <v>2049</v>
+        <v>3649</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Chemel, James L Cpa</t>
+          <t>Chapman, Ross E Esq</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>8 W Cerritos Ave #54</t>
+          <t>3 Mcauley Dr</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Bridgeport</t>
+          <t>Ashland</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Gloucester</t>
+          <t>Ashland</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>OH</t>
         </is>
       </c>
       <c r="W3" t="n">
-        <v>8014</v>
+        <v>44805</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -10133,13 +10133,13 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>9938524726</v>
+        <v>9593388185</v>
       </c>
       <c r="AD3" t="n">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AE3" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
@@ -10157,178 +10157,19 @@
         </is>
       </c>
       <c r="AI3" t="n">
-        <v>2178</v>
+        <v>1513</v>
       </c>
       <c r="AJ3" t="n">
         <v>3</v>
       </c>
       <c r="AK3" t="n">
-        <v>15</v>
+        <v>350</v>
       </c>
       <c r="AL3" t="n">
-        <v>32670</v>
+        <v>529550</v>
       </c>
       <c r="AM3" t="n">
-        <v>10890</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Charlie Higgins</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>c.higgins@randatmail.com</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SDLC</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bangalore</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Telecom</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>22</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>897-7397-13</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>Primary</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>Astronomer</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2049</v>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Chemel, James L Cpa</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>8 W Cerritos Ave #54</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Bridgeport</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>Gloucester</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>NJ</t>
-        </is>
-      </c>
-      <c r="W4" t="n">
-        <v>8014</v>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>B.Tech</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Dr. Debajyoty Banik</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>CE 4074 - Environmental Chemistry</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>debajyoty.banikfcs@kiit.ac.in</t>
-        </is>
-      </c>
-      <c r="AC4" t="n">
-        <v>9938524726</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>94</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>59</v>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>SLOT-7-SCE-1</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>Carretera</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="AI4" t="n">
-        <v>2178</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>32670</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>10890</v>
+        <v>136170</v>
       </c>
     </row>
   </sheetData>
